--- a/csv/ldaqda/ldaqda_clfda_perfs.xlsx
+++ b/csv/ldaqda/ldaqda_clfda_perfs.xlsx
@@ -114,16 +114,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
+        <v>0.05092592592592592</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.053910839362998654</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.046296296296296294</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.028688765527462346</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06018518518518518</v>
-      </c>
       <c r="E2" t="n">
-        <v>0.020910351464141136</v>
+        <v>0.0517194075695146</v>
       </c>
     </row>
   </sheetData>
@@ -240,13 +240,13 @@
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" t="n">
         <v>34.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -263,13 +263,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
@@ -389,13 +389,13 @@
         <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>33.0</v>
+        <v>34.0</v>
       </c>
       <c r="E4" t="n">
         <v>0.0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -415,10 +415,10 @@
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -435,13 +435,13 @@
         <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="G6" t="n">
         <v>1.0</v>
@@ -452,7 +452,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -464,10 +464,10 @@
         <v>0.0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G7" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
     </row>
   </sheetData>
